--- a/Planilha_tweets_classificados_por_probabilidade.xlsx
+++ b/Planilha_tweets_classificados_por_probabilidade.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Faculdade\Insper\2ºSemestre\Ciência dos dados\projeto2_cd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_A6F65EDE80096CEDF6160B6D7BDDD9F9512DDB41" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D061A032-A316-4FB9-8DA9-6C019665276F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1311,8 +1317,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1364,10 +1370,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,6 +1387,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1421,7 +1441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1453,9 +1473,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1487,6 +1525,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1662,15 +1718,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="112.5703125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1680,11 +1741,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -1694,11 +1755,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -1708,11 +1769,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -1722,11 +1783,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5">
@@ -1736,11 +1797,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6">
@@ -1750,11 +1811,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7">
@@ -1764,11 +1825,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8">
@@ -1778,11 +1839,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9">
@@ -1792,11 +1853,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10">
@@ -1806,11 +1867,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11">
@@ -1820,11 +1881,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12">
@@ -1834,11 +1895,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13">
@@ -1848,11 +1909,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C14">
@@ -1862,11 +1923,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C15">
@@ -1876,11 +1937,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C16">
@@ -1890,11 +1951,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C17">
@@ -1904,11 +1965,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C18">
@@ -1918,11 +1979,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C19">
@@ -1932,11 +1993,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C20">
@@ -1946,11 +2007,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C21">
@@ -1960,11 +2021,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C22">
@@ -1974,11 +2035,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C23">
@@ -1988,11 +2049,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C24">
@@ -2002,11 +2063,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C25">
@@ -2016,11 +2077,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -2030,11 +2091,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -2044,11 +2105,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -2058,11 +2119,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -2072,11 +2133,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -2086,11 +2147,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -2100,11 +2161,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -2114,11 +2175,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -2128,11 +2189,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -2142,11 +2203,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -2156,11 +2217,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2170,11 +2231,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -2184,11 +2245,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -2198,11 +2259,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -2212,11 +2273,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -2226,11 +2287,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C41">
@@ -2240,11 +2301,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C42">
@@ -2254,11 +2315,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C43">
@@ -2268,11 +2329,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C44">
@@ -2282,11 +2343,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -2296,11 +2357,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C46">
@@ -2310,11 +2371,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C47">
@@ -2324,11 +2385,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C48">
@@ -2338,11 +2399,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C49">
@@ -2352,11 +2413,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C50">
@@ -2366,11 +2427,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C51">
@@ -2380,11 +2441,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C52">
@@ -2394,11 +2455,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C53">
@@ -2408,11 +2469,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C54">
@@ -2422,11 +2483,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C55">
@@ -2436,11 +2497,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C56">
@@ -2450,11 +2511,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C57">
@@ -2464,11 +2525,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C58">
@@ -2478,11 +2539,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C59">
@@ -2492,11 +2553,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C60">
@@ -2506,11 +2567,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C61">
@@ -2520,11 +2581,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C62">
@@ -2534,11 +2595,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C63">
@@ -2548,11 +2609,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C64">
@@ -2562,11 +2623,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C65">
@@ -2576,11 +2637,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C66">
@@ -2590,11 +2651,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C67">
@@ -2604,11 +2665,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C68">
@@ -2618,11 +2679,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C69">
@@ -2632,11 +2693,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C70">
@@ -2646,11 +2707,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C71">
@@ -2660,11 +2721,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C72">
@@ -2674,11 +2735,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C73">
@@ -2688,11 +2749,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C74">
@@ -2702,11 +2763,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C75">
@@ -2716,11 +2777,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C76">
@@ -2730,11 +2791,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C77">
@@ -2744,11 +2805,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C78">
@@ -2758,11 +2819,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C79">
@@ -2772,11 +2833,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C80">
@@ -2786,11 +2847,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C81">
@@ -2800,11 +2861,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C82">
@@ -2814,11 +2875,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C83">
@@ -2828,11 +2889,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C84">
@@ -2842,11 +2903,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C85">
@@ -2856,11 +2917,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C86">
@@ -2870,11 +2931,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C87">
@@ -2884,11 +2945,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C88">
@@ -2898,11 +2959,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C89">
@@ -2912,11 +2973,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C90">
@@ -2926,11 +2987,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C91">
@@ -2940,11 +3001,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C92">
@@ -2954,11 +3015,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C93">
@@ -2968,11 +3029,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C94">
@@ -2982,11 +3043,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C95">
@@ -2996,11 +3057,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C96">
@@ -3010,11 +3071,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C97">
@@ -3024,11 +3085,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C98">
@@ -3038,11 +3099,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C99">
@@ -3052,11 +3113,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C100">
@@ -3066,11 +3127,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C101">
@@ -3080,11 +3141,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C102">
@@ -3094,11 +3155,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C103">
@@ -3108,11 +3169,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C104">
@@ -3122,11 +3183,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C105">
@@ -3136,11 +3197,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C106">
@@ -3150,11 +3211,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C107">
@@ -3164,11 +3225,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C108">
@@ -3178,11 +3239,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C109">
@@ -3192,11 +3253,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C110">
@@ -3206,11 +3267,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C111">
@@ -3220,11 +3281,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C112">
@@ -3234,11 +3295,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C113">
@@ -3248,11 +3309,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C114">
@@ -3262,11 +3323,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C115">
@@ -3276,11 +3337,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C116">
@@ -3290,11 +3351,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C117">
@@ -3304,11 +3365,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C118">
@@ -3318,11 +3379,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C119">
@@ -3332,11 +3393,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C120">
@@ -3346,11 +3407,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C121">
@@ -3360,11 +3421,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C122">
@@ -3374,11 +3435,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C123">
@@ -3388,11 +3449,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C124">
@@ -3402,11 +3463,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C125">
@@ -3416,11 +3477,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C126">
@@ -3430,11 +3491,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C127">
@@ -3444,11 +3505,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C128">
@@ -3458,11 +3519,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C129">
@@ -3472,11 +3533,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C130">
@@ -3486,11 +3547,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C131">
@@ -3500,11 +3561,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C132">
@@ -3514,11 +3575,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C133">
@@ -3528,11 +3589,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C134">
@@ -3542,11 +3603,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C135">
@@ -3556,11 +3617,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C136">
@@ -3570,11 +3631,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C137">
@@ -3584,11 +3645,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C138">
@@ -3598,11 +3659,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C139">
@@ -3612,11 +3673,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C140">
@@ -3626,11 +3687,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C141">
@@ -3640,11 +3701,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C142">
@@ -3654,11 +3715,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C143">
@@ -3668,11 +3729,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C144">
@@ -3682,11 +3743,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C145">
@@ -3696,11 +3757,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C146">
@@ -3710,11 +3771,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C147">
@@ -3724,11 +3785,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C148">
@@ -3738,11 +3799,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C149">
@@ -3752,11 +3813,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C150">
@@ -3766,11 +3827,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C151">
@@ -3780,11 +3841,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C152">
@@ -3794,11 +3855,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C153">
@@ -3808,11 +3869,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C154">
@@ -3822,11 +3883,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C155">
@@ -3836,11 +3897,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C156">
@@ -3850,11 +3911,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C157">
@@ -3864,11 +3925,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C158">
@@ -3878,11 +3939,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C159">
@@ -3892,11 +3953,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C160">
@@ -3906,11 +3967,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C161">
@@ -3920,11 +3981,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C162">
@@ -3934,11 +3995,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C163">
@@ -3948,11 +4009,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C164">
@@ -3962,11 +4023,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C165">
@@ -3976,11 +4037,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C166">
@@ -3990,11 +4051,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C167">
@@ -4004,11 +4065,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C168">
@@ -4018,11 +4079,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C169">
@@ -4032,11 +4093,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C170">
@@ -4046,11 +4107,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C171">
@@ -4060,11 +4121,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C172">
@@ -4074,11 +4135,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C173">
@@ -4088,11 +4149,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C174">
@@ -4102,11 +4163,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C175">
@@ -4116,11 +4177,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C176">
@@ -4130,11 +4191,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C177">
@@ -4144,11 +4205,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C178">
@@ -4158,11 +4219,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C179">
@@ -4172,11 +4233,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C180">
@@ -4186,11 +4247,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C181">
@@ -4200,11 +4261,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C182">
@@ -4214,11 +4275,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C183">
@@ -4228,11 +4289,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C184">
@@ -4242,11 +4303,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C185">
@@ -4256,11 +4317,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C186">
@@ -4270,11 +4331,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C187">
@@ -4284,11 +4345,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C188">
@@ -4298,11 +4359,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C189">
@@ -4312,11 +4373,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C190">
@@ -4326,11 +4387,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C191">
@@ -4340,11 +4401,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C192">
@@ -4354,11 +4415,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C193">
@@ -4368,11 +4429,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C194">
@@ -4382,11 +4443,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C195">
@@ -4396,11 +4457,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C196">
@@ -4410,11 +4471,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C197">
@@ -4424,11 +4485,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C198">
@@ -4438,11 +4499,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C199">
@@ -4452,11 +4513,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C200">
@@ -4466,11 +4527,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C201">
@@ -4480,11 +4541,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C202">
@@ -4494,11 +4555,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C203">
@@ -4508,11 +4569,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C204">
@@ -4522,11 +4583,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C205">
@@ -4536,11 +4597,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C206">
@@ -4550,11 +4611,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C207">
@@ -4564,11 +4625,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C208">
@@ -4578,11 +4639,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C209">
@@ -4592,11 +4653,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C210">
@@ -4606,11 +4667,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C211">
@@ -4620,11 +4681,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C212">
@@ -4634,11 +4695,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C213">
@@ -4648,11 +4709,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C214">
@@ -4662,11 +4723,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C215">
@@ -4676,11 +4737,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C216">
@@ -4690,11 +4751,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C217">
@@ -4704,11 +4765,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C218">
@@ -4718,11 +4779,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C219">
@@ -4732,11 +4793,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C220">
@@ -4746,11 +4807,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C221">
@@ -4760,11 +4821,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C222">
@@ -4774,11 +4835,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C223">
@@ -4788,11 +4849,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C224">
@@ -4802,11 +4863,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C225">
@@ -4816,11 +4877,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C226">
@@ -4830,11 +4891,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C227">
@@ -4844,11 +4905,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C228">
@@ -4858,11 +4919,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C229">
@@ -4872,11 +4933,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C230">
@@ -4886,11 +4947,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C231">
@@ -4900,11 +4961,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C232">
@@ -4914,11 +4975,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C233">
@@ -4928,11 +4989,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C234">
@@ -4942,11 +5003,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C235">
@@ -4956,11 +5017,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C236">
@@ -4970,11 +5031,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C237">
@@ -4984,11 +5045,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C238">
@@ -4998,11 +5059,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C239">
@@ -5012,11 +5073,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C240">
@@ -5026,11 +5087,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C241">
@@ -5040,11 +5101,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C242">
@@ -5054,11 +5115,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C243">
@@ -5068,11 +5129,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C244">
@@ -5082,11 +5143,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C245">
@@ -5096,11 +5157,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C246">
@@ -5110,11 +5171,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C247">
@@ -5124,11 +5185,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C248">
@@ -5138,11 +5199,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C249">
@@ -5152,11 +5213,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C250">
@@ -5166,11 +5227,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C251">
@@ -5180,11 +5241,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C252">
@@ -5194,11 +5255,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C253">
@@ -5208,11 +5269,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C254">
@@ -5222,11 +5283,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C255">
@@ -5236,11 +5297,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C256">
@@ -5250,11 +5311,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C257">
@@ -5264,11 +5325,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C258">
@@ -5278,11 +5339,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C259">
@@ -5292,11 +5353,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C260">
@@ -5306,11 +5367,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C261">
@@ -5320,11 +5381,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C262">
@@ -5334,11 +5395,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C263">
@@ -5348,11 +5409,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="3" t="s">
         <v>265</v>
       </c>
       <c r="C264">
@@ -5362,11 +5423,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="3" t="s">
         <v>266</v>
       </c>
       <c r="C265">
@@ -5376,11 +5437,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="3" t="s">
         <v>267</v>
       </c>
       <c r="C266">
@@ -5390,11 +5451,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="3" t="s">
         <v>268</v>
       </c>
       <c r="C267">
@@ -5404,11 +5465,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="3" t="s">
         <v>269</v>
       </c>
       <c r="C268">
@@ -5418,11 +5479,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="3" t="s">
         <v>270</v>
       </c>
       <c r="C269">
@@ -5432,11 +5493,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="3" t="s">
         <v>271</v>
       </c>
       <c r="C270">
@@ -5446,11 +5507,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="3" t="s">
         <v>272</v>
       </c>
       <c r="C271">
@@ -5460,11 +5521,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C272">
@@ -5474,11 +5535,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="3" t="s">
         <v>274</v>
       </c>
       <c r="C273">
@@ -5488,11 +5549,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C274">
@@ -5502,11 +5563,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="3" t="s">
         <v>276</v>
       </c>
       <c r="C275">
@@ -5516,11 +5577,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="3" t="s">
         <v>277</v>
       </c>
       <c r="C276">
@@ -5530,11 +5591,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="3" t="s">
         <v>278</v>
       </c>
       <c r="C277">
@@ -5544,11 +5605,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="3" t="s">
         <v>279</v>
       </c>
       <c r="C278">
@@ -5558,11 +5619,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C279">
@@ -5572,11 +5633,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C280">
@@ -5586,11 +5647,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="3" t="s">
         <v>282</v>
       </c>
       <c r="C281">
@@ -5600,11 +5661,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C282">
@@ -5614,11 +5675,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C283">
@@ -5628,11 +5689,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C284">
@@ -5642,11 +5703,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C285">
@@ -5656,11 +5717,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C286">
@@ -5670,11 +5731,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C287">
@@ -5684,11 +5745,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C288">
@@ -5698,11 +5759,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C289">
@@ -5712,11 +5773,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C290">
@@ -5726,11 +5787,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="3" t="s">
         <v>292</v>
       </c>
       <c r="C291">
@@ -5740,11 +5801,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C292">
@@ -5754,11 +5815,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="3" t="s">
         <v>294</v>
       </c>
       <c r="C293">
@@ -5768,11 +5829,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="3" t="s">
         <v>295</v>
       </c>
       <c r="C294">
@@ -5782,11 +5843,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="3" t="s">
         <v>296</v>
       </c>
       <c r="C295">
@@ -5796,11 +5857,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="3" t="s">
         <v>297</v>
       </c>
       <c r="C296">
@@ -5810,11 +5871,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="3" t="s">
         <v>298</v>
       </c>
       <c r="C297">
@@ -5824,11 +5885,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="3" t="s">
         <v>299</v>
       </c>
       <c r="C298">
@@ -5838,11 +5899,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="3" t="s">
         <v>300</v>
       </c>
       <c r="C299">
@@ -5852,11 +5913,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="3" t="s">
         <v>301</v>
       </c>
       <c r="C300">
@@ -5866,11 +5927,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="3" t="s">
         <v>302</v>
       </c>
       <c r="C301">
@@ -5880,11 +5941,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="3" t="s">
         <v>303</v>
       </c>
       <c r="C302">
@@ -5894,11 +5955,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C303">
@@ -5908,11 +5969,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="3" t="s">
         <v>305</v>
       </c>
       <c r="C304">
@@ -5922,11 +5983,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C305">
@@ -5936,11 +5997,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="3" t="s">
         <v>307</v>
       </c>
       <c r="C306">
@@ -5950,11 +6011,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="3" t="s">
         <v>308</v>
       </c>
       <c r="C307">
@@ -5964,11 +6025,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="3" t="s">
         <v>309</v>
       </c>
       <c r="C308">
@@ -5978,11 +6039,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="3" t="s">
         <v>310</v>
       </c>
       <c r="C309">
@@ -5992,11 +6053,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="3" t="s">
         <v>311</v>
       </c>
       <c r="C310">
@@ -6006,11 +6067,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C311">
@@ -6020,11 +6081,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="3" t="s">
         <v>313</v>
       </c>
       <c r="C312">
@@ -6034,11 +6095,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="3" t="s">
         <v>314</v>
       </c>
       <c r="C313">
@@ -6048,11 +6109,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="3" t="s">
         <v>315</v>
       </c>
       <c r="C314">
@@ -6062,11 +6123,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C315">
@@ -6076,11 +6137,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C316">
@@ -6090,11 +6151,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="3" t="s">
         <v>318</v>
       </c>
       <c r="C317">
@@ -6104,11 +6165,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C318">
@@ -6118,11 +6179,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C319">
@@ -6132,11 +6193,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="3" t="s">
         <v>321</v>
       </c>
       <c r="C320">
@@ -6146,11 +6207,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="3" t="s">
         <v>322</v>
       </c>
       <c r="C321">
@@ -6160,11 +6221,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C322">
@@ -6174,11 +6235,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="3" t="s">
         <v>324</v>
       </c>
       <c r="C323">
@@ -6188,11 +6249,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C324">
@@ -6202,11 +6263,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="3" t="s">
         <v>326</v>
       </c>
       <c r="C325">
@@ -6216,11 +6277,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="3" t="s">
         <v>327</v>
       </c>
       <c r="C326">
@@ -6230,11 +6291,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="3" t="s">
         <v>328</v>
       </c>
       <c r="C327">
@@ -6244,11 +6305,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="3" t="s">
         <v>329</v>
       </c>
       <c r="C328">
@@ -6258,11 +6319,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C329">
@@ -6272,11 +6333,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="3" t="s">
         <v>331</v>
       </c>
       <c r="C330">
@@ -6286,11 +6347,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="3" t="s">
         <v>332</v>
       </c>
       <c r="C331">
@@ -6300,11 +6361,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="3" t="s">
         <v>333</v>
       </c>
       <c r="C332">
@@ -6314,11 +6375,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="3" t="s">
         <v>334</v>
       </c>
       <c r="C333">
@@ -6328,11 +6389,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="3" t="s">
         <v>335</v>
       </c>
       <c r="C334">
@@ -6342,11 +6403,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="3" t="s">
         <v>336</v>
       </c>
       <c r="C335">
@@ -6356,11 +6417,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C336">
@@ -6370,11 +6431,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="3" t="s">
         <v>338</v>
       </c>
       <c r="C337">
@@ -6384,11 +6445,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="3" t="s">
         <v>339</v>
       </c>
       <c r="C338">
@@ -6398,11 +6459,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="3" t="s">
         <v>340</v>
       </c>
       <c r="C339">
@@ -6412,11 +6473,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C340">
@@ -6426,11 +6487,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="3" t="s">
         <v>342</v>
       </c>
       <c r="C341">
@@ -6440,11 +6501,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="3" t="s">
         <v>343</v>
       </c>
       <c r="C342">
@@ -6454,11 +6515,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="3" t="s">
         <v>344</v>
       </c>
       <c r="C343">
@@ -6468,11 +6529,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="3" t="s">
         <v>345</v>
       </c>
       <c r="C344">
@@ -6482,11 +6543,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C345">
@@ -6496,11 +6557,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="3" t="s">
         <v>347</v>
       </c>
       <c r="C346">
@@ -6510,11 +6571,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C347">
@@ -6524,11 +6585,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="3" t="s">
         <v>349</v>
       </c>
       <c r="C348">
@@ -6538,11 +6599,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C349">
@@ -6552,11 +6613,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="3" t="s">
         <v>351</v>
       </c>
       <c r="C350">
@@ -6566,11 +6627,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="3" t="s">
         <v>352</v>
       </c>
       <c r="C351">
@@ -6580,11 +6641,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="3" t="s">
         <v>353</v>
       </c>
       <c r="C352">
@@ -6594,11 +6655,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="3" t="s">
         <v>354</v>
       </c>
       <c r="C353">
@@ -6608,11 +6669,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="3" t="s">
         <v>355</v>
       </c>
       <c r="C354">
@@ -6622,11 +6683,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="3" t="s">
         <v>356</v>
       </c>
       <c r="C355">
@@ -6636,11 +6697,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="3" t="s">
         <v>357</v>
       </c>
       <c r="C356">
@@ -6650,11 +6711,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="3" t="s">
         <v>358</v>
       </c>
       <c r="C357">
@@ -6664,11 +6725,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="3" t="s">
         <v>359</v>
       </c>
       <c r="C358">
@@ -6678,11 +6739,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C359">
@@ -6692,11 +6753,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="3" t="s">
         <v>361</v>
       </c>
       <c r="C360">
@@ -6706,11 +6767,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="3" t="s">
         <v>362</v>
       </c>
       <c r="C361">
@@ -6720,11 +6781,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="3" t="s">
         <v>363</v>
       </c>
       <c r="C362">
@@ -6734,11 +6795,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C363">
@@ -6748,11 +6809,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C364">
@@ -6762,11 +6823,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="3" t="s">
         <v>366</v>
       </c>
       <c r="C365">
@@ -6776,11 +6837,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C366">
@@ -6790,11 +6851,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C367">
@@ -6804,11 +6865,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="3" t="s">
         <v>369</v>
       </c>
       <c r="C368">
@@ -6818,11 +6879,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="3" t="s">
         <v>370</v>
       </c>
       <c r="C369">
@@ -6832,11 +6893,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C370">
@@ -6846,11 +6907,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="3" t="s">
         <v>372</v>
       </c>
       <c r="C371">
@@ -6860,11 +6921,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C372">
@@ -6874,11 +6935,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C373">
@@ -6888,11 +6949,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="3" t="s">
         <v>375</v>
       </c>
       <c r="C374">
@@ -6902,11 +6963,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="3" t="s">
         <v>376</v>
       </c>
       <c r="C375">
@@ -6916,11 +6977,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="3" t="s">
         <v>377</v>
       </c>
       <c r="C376">
@@ -6930,11 +6991,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="3" t="s">
         <v>378</v>
       </c>
       <c r="C377">
@@ -6944,11 +7005,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C378">
@@ -6958,11 +7019,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="3" t="s">
         <v>380</v>
       </c>
       <c r="C379">
@@ -6972,11 +7033,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="3" t="s">
         <v>381</v>
       </c>
       <c r="C380">
@@ -6986,11 +7047,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="3" t="s">
         <v>382</v>
       </c>
       <c r="C381">
@@ -7000,11 +7061,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="3" t="s">
         <v>383</v>
       </c>
       <c r="C382">
@@ -7014,11 +7075,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="3" t="s">
         <v>384</v>
       </c>
       <c r="C383">
@@ -7028,11 +7089,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="3" t="s">
         <v>385</v>
       </c>
       <c r="C384">
@@ -7042,11 +7103,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="3" t="s">
         <v>386</v>
       </c>
       <c r="C385">
@@ -7056,11 +7117,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="3" t="s">
         <v>387</v>
       </c>
       <c r="C386">
@@ -7070,11 +7131,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="3" t="s">
         <v>388</v>
       </c>
       <c r="C387">
@@ -7084,11 +7145,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="3" t="s">
         <v>389</v>
       </c>
       <c r="C388">
@@ -7098,11 +7159,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="3" t="s">
         <v>390</v>
       </c>
       <c r="C389">
@@ -7112,11 +7173,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C390">
@@ -7126,11 +7187,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="3" t="s">
         <v>392</v>
       </c>
       <c r="C391">
@@ -7140,11 +7201,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C392">
